--- a/flows/UNL_fund_flow_data.xlsx
+++ b/flows/UNL_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3591"/>
+  <dimension ref="A1:B3611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36345,6 +36345,206 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3592">
+      <c r="A3592" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B3592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3593">
+      <c r="A3593" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B3593" t="n">
+        <v>0.3938</v>
+      </c>
+    </row>
+    <row r="3594">
+      <c r="A3594" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B3594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3595">
+      <c r="A3595" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B3595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3596">
+      <c r="A3596" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3596" t="n">
+        <v>0.7805</v>
+      </c>
+    </row>
+    <row r="3597">
+      <c r="A3597" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3598">
+      <c r="A3598" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3599">
+      <c r="A3599" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3600">
+      <c r="A3600" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3601">
+      <c r="A3601" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3602">
+      <c r="A3602" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3603">
+      <c r="A3603" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3603" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3604">
+      <c r="A3604" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3605">
+      <c r="A3605" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3605" t="n">
+        <v>0.39815</v>
+      </c>
+    </row>
+    <row r="3606">
+      <c r="A3606" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3607">
+      <c r="A3607" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3607" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3608">
+      <c r="A3608" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3608" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3609">
+      <c r="A3609" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3610">
+      <c r="A3610" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B3610" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3611">
+      <c r="A3611" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="B3611" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
